--- a/GKMetroWeb/docs/GKMetroWebDesign.xlsx
+++ b/GKMetroWeb/docs/GKMetroWebDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Microsoft</t>
   </si>
@@ -228,12 +228,6 @@
     <t>Can we instantiate an interface in C# ?</t>
   </si>
   <si>
-    <t>Why Pi is so special</t>
-  </si>
-  <si>
-    <t>Why complex number system is based on i</t>
-  </si>
-  <si>
     <t>Is .NET purely open source ?</t>
   </si>
   <si>
@@ -244,6 +238,33 @@
   </si>
   <si>
     <t>Interesting Apps</t>
+  </si>
+  <si>
+    <t>does snakes have ears?</t>
+  </si>
+  <si>
+    <t>can plants reproduce witout flowers or seeds?</t>
+  </si>
+  <si>
+    <t>Which country does not have night?</t>
+  </si>
+  <si>
+    <t>is there any difference in ploar and eqator diameters of earth?</t>
+  </si>
+  <si>
+    <t>Can animals live without oxygen?</t>
+  </si>
+  <si>
+    <t>which part of brain controls hearat beat?</t>
+  </si>
+  <si>
+    <t>Unbelivable facts about Pi</t>
+  </si>
+  <si>
+    <t>is it absolutely impossible to sneeze with your eyes open?</t>
+  </si>
+  <si>
+    <t>which animal is lucky to have the longest orgasm?</t>
   </si>
 </sst>
 </file>
@@ -695,12 +716,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -812,15 +833,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,17 +861,52 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1073,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/GKMetroWeb/docs/GKMetroWebDesign.xlsx
+++ b/GKMetroWeb/docs/GKMetroWebDesign.xlsx
@@ -240,12 +240,6 @@
     <t>Interesting Apps</t>
   </si>
   <si>
-    <t>does snakes have ears?</t>
-  </si>
-  <si>
-    <t>can plants reproduce witout flowers or seeds?</t>
-  </si>
-  <si>
     <t>Which country does not have night?</t>
   </si>
   <si>
@@ -255,16 +249,22 @@
     <t>Can animals live without oxygen?</t>
   </si>
   <si>
-    <t>which part of brain controls hearat beat?</t>
-  </si>
-  <si>
     <t>Unbelivable facts about Pi</t>
   </si>
   <si>
-    <t>is it absolutely impossible to sneeze with your eyes open?</t>
-  </si>
-  <si>
     <t>which animal is lucky to have the longest orgasm?</t>
+  </si>
+  <si>
+    <t>Does snakes have ears?</t>
+  </si>
+  <si>
+    <t>Can plants reproduce witout flowers or seeds?</t>
+  </si>
+  <si>
+    <t>Which part of brain controls hearat beat?</t>
+  </si>
+  <si>
+    <t>Is it absolutely impossible to sneeze with your eyes open?</t>
   </si>
 </sst>
 </file>
@@ -866,47 +866,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/GKMetroWeb/docs/GKMetroWebDesign.xlsx
+++ b/GKMetroWeb/docs/GKMetroWebDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Technology" sheetId="4" r:id="rId8"/>
     <sheet name="Music" sheetId="7" r:id="rId9"/>
     <sheet name="Product Management" sheetId="9" r:id="rId10"/>
-    <sheet name="Photography" sheetId="12" r:id="rId11"/>
+    <sheet name="Entrepreneurship" sheetId="12" r:id="rId11"/>
     <sheet name="GuestBook" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>Microsoft</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Technical Blog</t>
   </si>
   <si>
-    <t>Orkut</t>
-  </si>
-  <si>
     <t>Ilayaraja</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>Top Banner</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Discover</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>OpenSource</t>
   </si>
   <si>
-    <t>Linux Basics</t>
-  </si>
-  <si>
     <t>Hacking</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>My Family</t>
   </si>
   <si>
-    <t>My Favorites</t>
-  </si>
-  <si>
     <t>My Photos</t>
   </si>
   <si>
@@ -201,9 +186,6 @@
     <t>Math Fun</t>
   </si>
   <si>
-    <t>Photography</t>
-  </si>
-  <si>
     <t>Icons</t>
   </si>
   <si>
@@ -231,12 +213,6 @@
     <t>Is .NET purely open source ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Submit </t>
-  </si>
-  <si>
-    <t>View Guestbook Entries</t>
-  </si>
-  <si>
     <t>Interesting Apps</t>
   </si>
   <si>
@@ -265,13 +241,88 @@
   </si>
   <si>
     <t>Is it absolutely impossible to sneeze with your eyes open?</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Google+</t>
+  </si>
+  <si>
+    <t>Discover Menu</t>
+  </si>
+  <si>
+    <t>Search Box</t>
+  </si>
+  <si>
+    <t>My Interests</t>
+  </si>
+  <si>
+    <t>My Profession</t>
+  </si>
+  <si>
+    <t>My Personal Photos</t>
+  </si>
+  <si>
+    <t>My IIT Photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux </t>
+  </si>
+  <si>
+    <t>MSDN</t>
+  </si>
+  <si>
+    <t>CodePlex</t>
+  </si>
+  <si>
+    <t>SourceForge</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Why Use Linux</t>
+  </si>
+  <si>
+    <t>Basic Commands in Linux(for newbies)</t>
+  </si>
+  <si>
+    <t>Installation in Linux</t>
+  </si>
+  <si>
+    <t>Windows-Linux Equivalence Table</t>
+  </si>
+  <si>
+    <t>Compiling a Linux Kernel</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Guestbook</t>
+  </si>
+  <si>
+    <t>Sign-In Guestbook</t>
+  </si>
+  <si>
+    <t>Comment with Facebook</t>
+  </si>
+  <si>
+    <t>Comment with E-Mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,13 +330,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,8 +363,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +674,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,45 +694,45 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -703,25 +770,37 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>69</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -731,10 +810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,14 +822,14 @@
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,60 +849,62 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -833,10 +914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,69 +925,69 @@
     <col min="2" max="2" width="79.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>66</v>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +1000,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,52 +1011,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -985,40 +1066,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1038,42 +1135,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1191,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1104,76 +1201,137 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>33</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1183,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,34 +1353,54 @@
     <col min="2" max="2" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/GKMetroWeb/docs/GKMetroWebDesign.xlsx
+++ b/GKMetroWeb/docs/GKMetroWebDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>Microsoft</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>My Personal</t>
-  </si>
-  <si>
     <t>Interesting Stuff</t>
   </si>
   <si>
@@ -316,6 +313,21 @@
   </si>
   <si>
     <t>Comment with E-Mail</t>
+  </si>
+  <si>
+    <t>MyPersonal</t>
+  </si>
+  <si>
+    <t>InterestingScienceFacts</t>
+  </si>
+  <si>
+    <t>InterestingMathematicalFacts</t>
+  </si>
+  <si>
+    <t>InterestingSocialFacts</t>
+  </si>
+  <si>
+    <t>Sardarji Jokes</t>
   </si>
 </sst>
 </file>
@@ -684,55 +696,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -785,22 +797,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -824,87 +836,87 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -927,67 +939,67 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1011,52 +1023,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1080,37 +1092,37 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1121,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,44 +1145,64 @@
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1223,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1216,42 +1248,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1261,42 +1293,42 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1306,32 +1338,32 @@
     </row>
     <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1355,52 +1387,52 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/GKMetroWeb/docs/GKMetroWebDesign.xlsx
+++ b/GKMetroWeb/docs/GKMetroWebDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>Microsoft</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Sardarji Jokes</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>LinuxBasics.aspx</t>
   </si>
 </sst>
 </file>
@@ -1135,9 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1233,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,125 +1251,141 @@
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
     </row>
